--- a/data/trans_orig/Q02D_FES-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_FES-Estudios-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>9.007956533419103</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>7.530324908925504</v>
+        <v>7.530324908925505</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>6.982150484537481</v>
@@ -693,7 +693,7 @@
         <v>8.521864233009085</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>7.304539974798011</v>
+        <v>7.30453997479801</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.072798234565538</v>
+        <v>6.082972346172805</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.214930674039953</v>
+        <v>5.175450372986197</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.530583333488608</v>
+        <v>6.494384632892864</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.833949515428897</v>
+        <v>4.692724007297151</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>6.10661365185582</v>
+        <v>6.151833444617072</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.202968345865929</v>
+        <v>6.226082634076613</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.962139049894505</v>
+        <v>8.009369433942499</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.30128912933665</v>
+        <v>6.247972503787832</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.375027182029424</v>
+        <v>6.360109441559613</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6.029160038145575</v>
+        <v>6.031501763636991</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7.644710903561952</v>
+        <v>7.691689385346632</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>6.137490632871069</v>
+        <v>6.14645931087133</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.374650356751395</v>
+        <v>8.413577033517644</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.34966144240117</v>
+        <v>6.395317246855391</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.22175798717161</v>
+        <v>9.098876880034444</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.4626044141992</v>
+        <v>10.58303295103898</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.691739816227852</v>
+        <v>7.709512209878275</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.119763555792749</v>
+        <v>7.157313800767846</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.16483098162277</v>
+        <v>10.12098877766807</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.467923173065859</v>
+        <v>9.211705861573073</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.631494989373318</v>
+        <v>7.602435377215919</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6.729244951089698</v>
+        <v>6.736616882852186</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9.308157649296652</v>
+        <v>9.363948108038995</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>8.911864134966061</v>
+        <v>8.794221544323845</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>9.558370034180321</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>7.90661288420913</v>
+        <v>7.906612884209128</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.784321755119873</v>
+        <v>3.721317418040476</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.016261863770731</v>
+        <v>5.045725097423365</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.915346879787929</v>
+        <v>7.978540581021988</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5.819927887516047</v>
+        <v>5.768777648479629</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>6.65771261920607</v>
+        <v>6.675740456968114</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>7.079615465872719</v>
+        <v>7.044526092842211</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>9.647574910599191</v>
+        <v>9.649049915591705</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>8.049105427269261</v>
+        <v>8.040879837423125</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>5.639853315105416</v>
+        <v>5.622626460349172</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6.317829818363617</v>
+        <v>6.311674065202574</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9.169846626400354</v>
+        <v>9.157668324596852</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>7.352031975781664</v>
+        <v>7.354089178739856</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.813301132045654</v>
+        <v>4.706691685688623</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.669836947758964</v>
+        <v>5.682791528142024</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.3037088729424</v>
+        <v>9.335746135065898</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.641574455435995</v>
+        <v>7.656855072582434</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.784850642932884</v>
+        <v>7.77974546290575</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.642182979805943</v>
+        <v>7.620528334476786</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>10.7262262544753</v>
+        <v>10.77233364123748</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>9.591442566321531</v>
+        <v>9.523211498526837</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>6.450888347317539</v>
+        <v>6.459246118730928</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6.747055979285031</v>
+        <v>6.734587321191536</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9.980655458587716</v>
+        <v>10.00557117353881</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>8.497428123195744</v>
+        <v>8.529107085742824</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>8.701861646682179</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9.731511446266643</v>
+        <v>9.731511446266646</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>7.247130873274847</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.820802231138076</v>
+        <v>3.851439058508303</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.693830375382896</v>
+        <v>4.724588066963721</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.559129153781436</v>
+        <v>7.594205708643132</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.885610694729452</v>
+        <v>7.877750049375082</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>6.252218229009479</v>
+        <v>6.271158876411486</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.645015729933779</v>
+        <v>6.651619035906245</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>10.26510904452124</v>
+        <v>10.34330656106266</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>8.952272489787093</v>
+        <v>8.883406519232182</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.423823849786536</v>
+        <v>5.526815905057858</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5.945407060683219</v>
+        <v>5.923759141188872</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9.517398437012588</v>
+        <v>9.558451085336955</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>8.96325946297249</v>
+        <v>8.906022205928318</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.739947918935155</v>
+        <v>5.832750968731542</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.866659919723585</v>
+        <v>5.856575523827008</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.836060886963615</v>
+        <v>9.999881536874694</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.17796366986555</v>
+        <v>11.84978944391647</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>8.311221355417231</v>
+        <v>8.332714973434644</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.825986330734173</v>
+        <v>7.86378528903794</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>12.33559964761224</v>
+        <v>12.36359149707088</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>12.36655432370593</v>
+        <v>11.90041246901548</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.939244888351443</v>
+        <v>7.025380728151966</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6.809806371142324</v>
+        <v>6.811548351833321</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11.0289702259164</v>
+        <v>11.09758874967319</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>11.50221846611112</v>
+        <v>11.41288712135425</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>8.505731645005886</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7.184918961921191</v>
+        <v>7.18491896192119</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>7.144018470582281</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.444556658695483</v>
+        <v>4.435657810880872</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.142564817215196</v>
+        <v>5.165933155210819</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8.013406072889955</v>
+        <v>8.05872073987285</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.46999737964731</v>
+        <v>6.436077809778792</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>6.749282087510609</v>
+        <v>6.758316678612444</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>6.919100734917217</v>
+        <v>6.916897451944541</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>9.740226006501976</v>
+        <v>9.761830250841074</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>8.285116626017684</v>
+        <v>8.315578853944455</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>5.93504329396911</v>
+        <v>5.972975050456198</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6.301039785590622</v>
+        <v>6.27081062970161</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9.180683910333272</v>
+        <v>9.15222346587065</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>7.747716908351317</v>
+        <v>7.788707262268822</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.339652413452532</v>
+        <v>5.266582938386034</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.659829255873023</v>
+        <v>5.684251287542822</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.092666496414408</v>
+        <v>9.049598940132803</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.088411446332389</v>
+        <v>8.074255136778943</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>7.575041047217526</v>
+        <v>7.553634124685706</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>7.374609249909952</v>
+        <v>7.372501706030187</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>10.66003191233921</v>
+        <v>10.61333048232791</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>9.586879020601378</v>
+        <v>9.597275522440672</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>6.539795442665283</v>
+        <v>6.561815966157126</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6.632923588365154</v>
+        <v>6.645230101386475</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>9.827664095075949</v>
+        <v>9.84436065137808</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>8.755775639912372</v>
+        <v>8.790076518169693</v>
       </c>
     </row>
     <row r="16">
